--- a/expo.xlsx
+++ b/expo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,6 +471,11 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>Sum</t>
         </is>
       </c>
@@ -505,6 +510,9 @@
       <c r="I2" t="n">
         <v>413</v>
       </c>
+      <c r="J2" t="n">
+        <v>826</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -536,6 +544,9 @@
       <c r="I3" t="n">
         <v>303</v>
       </c>
+      <c r="J3" t="n">
+        <v>606</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -567,6 +578,9 @@
       <c r="I4" t="n">
         <v>377</v>
       </c>
+      <c r="J4" t="n">
+        <v>754</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -598,6 +612,9 @@
       <c r="I5" t="n">
         <v>333</v>
       </c>
+      <c r="J5" t="n">
+        <v>666</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -629,6 +646,9 @@
       <c r="I6" t="n">
         <v>424</v>
       </c>
+      <c r="J6" t="n">
+        <v>848</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,6 +680,9 @@
       <c r="I7" t="n">
         <v>420</v>
       </c>
+      <c r="J7" t="n">
+        <v>840</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -691,6 +714,9 @@
       <c r="I8" t="n">
         <v>427</v>
       </c>
+      <c r="J8" t="n">
+        <v>854</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -722,6 +748,9 @@
       <c r="I9" t="n">
         <v>355</v>
       </c>
+      <c r="J9" t="n">
+        <v>710</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -753,6 +782,9 @@
       <c r="I10" t="n">
         <v>393</v>
       </c>
+      <c r="J10" t="n">
+        <v>786</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -784,6 +816,9 @@
       <c r="I11" t="n">
         <v>404</v>
       </c>
+      <c r="J11" t="n">
+        <v>808</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -815,6 +850,9 @@
       <c r="I12" t="n">
         <v>373</v>
       </c>
+      <c r="J12" t="n">
+        <v>746</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -846,6 +884,9 @@
       <c r="I13" t="n">
         <v>300</v>
       </c>
+      <c r="J13" t="n">
+        <v>600</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -877,6 +918,9 @@
       <c r="I14" t="n">
         <v>410</v>
       </c>
+      <c r="J14" t="n">
+        <v>820</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -908,6 +952,9 @@
       <c r="I15" t="n">
         <v>213</v>
       </c>
+      <c r="J15" t="n">
+        <v>426</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -939,6 +986,9 @@
       <c r="I16" t="n">
         <v>196</v>
       </c>
+      <c r="J16" t="n">
+        <v>392</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -970,6 +1020,9 @@
       <c r="I17" t="n">
         <v>387</v>
       </c>
+      <c r="J17" t="n">
+        <v>774</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1001,6 +1054,9 @@
       <c r="I18" t="n">
         <v>317</v>
       </c>
+      <c r="J18" t="n">
+        <v>634</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1032,6 +1088,9 @@
       <c r="I19" t="n">
         <v>391</v>
       </c>
+      <c r="J19" t="n">
+        <v>782</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1063,6 +1122,9 @@
       <c r="I20" t="n">
         <v>434</v>
       </c>
+      <c r="J20" t="n">
+        <v>868</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1093,6 +1155,9 @@
       </c>
       <c r="I21" t="n">
         <v>372</v>
+      </c>
+      <c r="J21" t="n">
+        <v>744</v>
       </c>
     </row>
   </sheetData>
